--- a/BD/documents/设计文档/表结构.xlsx
+++ b/BD/documents/设计文档/表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="摘要" sheetId="1" r:id="rId1"/>
@@ -105,10 +105,6 @@
   </si>
   <si>
     <t>enum</t>
-  </si>
-  <si>
-    <t>lastLoginTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
@@ -309,10 +305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>createTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ISODate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,18 +313,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>updateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NumberLong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -389,22 +373,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地址信息{province,city,region,details}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>geoLocation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>经纬度{latitude,longitude}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>profession</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -449,10 +421,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>preTokenRefreshTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tokenRefreshTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -462,10 +430,6 @@
   </si>
   <si>
     <t>isDelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unlockedTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -557,10 +521,6 @@
       </rPr>
       <t>ID</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isEmailVerified</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -676,6 +636,82 @@
   </si>
   <si>
     <t>source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isEmailVerified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastLoginTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preTokenRefreshTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地址信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>{province,city,region,details}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经纬度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>{latitude,longitude}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profession</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlockedTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1194,7 +1230,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1202,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1210,7 +1246,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1218,7 +1254,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1226,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1289,8 +1325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1303,267 +1339,268 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="42.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1597,85 +1634,85 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -1723,7 +1760,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1741,7 +1778,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -1753,93 +1790,93 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -1881,13 +1918,13 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1899,61 +1936,61 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -2031,7 +2068,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -2073,7 +2110,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -2085,16 +2122,16 @@
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -2105,60 +2142,60 @@
         <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
@@ -2166,7 +2203,7 @@
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
@@ -2174,7 +2211,7 @@
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -2182,7 +2219,7 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2200,7 +2237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -2233,7 +2270,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -2275,55 +2312,55 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>21</v>

--- a/BD/documents/设计文档/表结构.xlsx
+++ b/BD/documents/设计文档/表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="摘要" sheetId="1" r:id="rId1"/>
@@ -236,9 +236,6 @@
     <t>token创建时间</t>
   </si>
   <si>
-    <t>ssoToken</t>
-  </si>
-  <si>
     <t>保存的是global token值</t>
   </si>
   <si>
@@ -525,9 +522,6 @@
   </si>
   <si>
     <t>IP 地址</t>
-  </si>
-  <si>
-    <t>identifier</t>
   </si>
   <si>
     <t>身份识别号</t>
@@ -712,6 +706,14 @@
   </si>
   <si>
     <t>unlockedTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identifier</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1230,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1238,7 +1240,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1246,7 +1248,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1254,7 +1256,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1262,7 +1264,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1325,7 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -1339,42 +1341,42 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
@@ -1393,49 +1395,49 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>51</v>
@@ -1443,157 +1445,157 @@
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="42.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D21" s="2"/>
     </row>
@@ -1608,7 +1610,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1634,13 +1638,13 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1658,7 +1662,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
@@ -1670,7 +1674,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -1682,7 +1686,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>19</v>
@@ -1694,31 +1698,32 @@
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1727,7 +1732,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1778,7 +1783,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -1790,37 +1795,37 @@
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
@@ -1828,55 +1833,55 @@
     </row>
     <row r="8" spans="1:4" ht="55.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D11" s="2"/>
     </row>
@@ -1891,7 +1896,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1918,13 +1923,13 @@
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -1936,61 +1941,61 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -2034,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2238,7 +2243,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F31" sqref="F31:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2312,55 +2317,55 @@
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>21</v>

--- a/BD/documents/设计文档/表结构.xlsx
+++ b/BD/documents/设计文档/表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="摘要" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="163">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -714,6 +714,22 @@
   </si>
   <si>
     <t>identifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -853,7 +869,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,6 +894,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1325,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1381,223 +1400,237 @@
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>160</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="42.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="42.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D22" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2039,7 +2072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
